--- a/Gaurav_MyLearning/NewLearning/iperf-3.17.1-win64/line_chart_example_final.xlsx
+++ b/Gaurav_MyLearning/NewLearning/iperf-3.17.1-win64/line_chart_example_final.xlsx
@@ -306,11 +306,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="124518784"/>
-        <c:axId val="124520320"/>
+        <c:axId val="125370752"/>
+        <c:axId val="125372288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124518784"/>
+        <c:axId val="125370752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,14 +318,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124520320"/>
+        <c:crossAx val="125372288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124520320"/>
+        <c:axId val="125372288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,7 +333,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="124518784"/>
+        <c:crossAx val="125370752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
